--- a/Config/Excel/MapMountain.xlsx
+++ b/Config/Excel/MapMountain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7952D4-D985-4D4C-8FB8-7D2669E2666C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1721F4C1-CBC7-4119-B526-5947B22CEF10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E968E56F-0CC0-4AFA-9179-F215C97FD34D}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -487,16 +487,16 @@
         <v>1000</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -516,7 +516,7 @@
         <v>40</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>5</v>

--- a/Config/Excel/MapMountain.xlsx
+++ b/Config/Excel/MapMountain.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1721F4C1-CBC7-4119-B526-5947B22CEF10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06CA771-F7E2-4766-936A-A30C970A82ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E968E56F-0CC0-4AFA-9179-F215C97FD34D}"/>
+    <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E968E56F-0CC0-4AFA-9179-F215C97FD34D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="説明" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -60,6 +61,72 @@
   </si>
   <si>
     <t>Wide</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動で生成される山</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StartPosX、Y、Z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唯一のID</t>
+    <rPh sb="0" eb="2">
+      <t>ユイイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生成される始点（山全体がこの始点と同じブロック）</t>
+    <rPh sb="0" eb="2">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山の高さ</t>
+    <rPh sb="0" eb="1">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山頂の広さ</t>
+    <rPh sb="0" eb="2">
+      <t>サンチョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒロ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -67,7 +134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,21 +150,73 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -106,11 +225,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -453,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAE46C9-DA47-4AAE-A1CB-DF3EA16384E4}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -564,4 +692,69 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB9EB89-86AD-490B-9590-A3083D8E5E30}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Config/Excel/MapMountain.xlsx
+++ b/Config/Excel/MapMountain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06CA771-F7E2-4766-936A-A30C970A82ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C01AB5-D5C9-4BBE-94CA-8A34EF0D344C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E968E56F-0CC0-4AFA-9179-F215C97FD34D}"/>
+    <workbookView xWindow="2565" yWindow="4110" windowWidth="24525" windowHeight="12975" xr2:uid="{E968E56F-0CC0-4AFA-9179-F215C97FD34D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAE46C9-DA47-4AAE-A1CB-DF3EA16384E4}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -618,13 +618,13 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>40</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -644,7 +644,7 @@
         <v>40</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -664,7 +664,7 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>9</v>
@@ -698,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB9EB89-86AD-490B-9590-A3083D8E5E30}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/MapMountain.xlsx
+++ b/Config/Excel/MapMountain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C01AB5-D5C9-4BBE-94CA-8A34EF0D344C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F18C0C3-5470-4EF5-A3D1-A7AF10CE0869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="4110" windowWidth="24525" windowHeight="12975" xr2:uid="{E968E56F-0CC0-4AFA-9179-F215C97FD34D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E968E56F-0CC0-4AFA-9179-F215C97FD34D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -268,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B522898-06F1-4748-AC27-AE72D193764A}" name="テーブル1" displayName="テーブル1" ref="A1:F5" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:F5" xr:uid="{0A2CB856-9B44-4213-A4F2-04B15359D0B7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B522898-06F1-4748-AC27-AE72D193764A}" name="テーブル1" displayName="テーブル1" ref="A1:F8" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F8" xr:uid="{0A2CB856-9B44-4213-A4F2-04B15359D0B7}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{66C173E4-0B23-4B66-80E3-5E11635161ED}" name="ID"/>
     <tableColumn id="2" xr3:uid="{EE71A190-6CAD-40A4-9C7C-F5B145035370}" name="StartPosX"/>
@@ -579,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAE46C9-DA47-4AAE-A1CB-DF3EA16384E4}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -682,6 +682,48 @@
       </c>
       <c r="F5">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>2001</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>2002</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>2003</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/MapMountain.xlsx
+++ b/Config/Excel/MapMountain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F18C0C3-5470-4EF5-A3D1-A7AF10CE0869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA84864-7FAC-46E8-89A5-458A647F3A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E968E56F-0CC0-4AFA-9179-F215C97FD34D}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21690" windowHeight="12525" xr2:uid="{E968E56F-0CC0-4AFA-9179-F215C97FD34D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -268,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B522898-06F1-4748-AC27-AE72D193764A}" name="テーブル1" displayName="テーブル1" ref="A1:F8" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:F8" xr:uid="{0A2CB856-9B44-4213-A4F2-04B15359D0B7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B522898-06F1-4748-AC27-AE72D193764A}" name="テーブル1" displayName="テーブル1" ref="A1:F9" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F9" xr:uid="{0A2CB856-9B44-4213-A4F2-04B15359D0B7}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{66C173E4-0B23-4B66-80E3-5E11635161ED}" name="ID"/>
     <tableColumn id="2" xr3:uid="{EE71A190-6CAD-40A4-9C7C-F5B145035370}" name="StartPosX"/>
@@ -579,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAE46C9-DA47-4AAE-A1CB-DF3EA16384E4}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -724,6 +724,20 @@
       </c>
       <c r="F8">
         <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>3001</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/MapMountain.xlsx
+++ b/Config/Excel/MapMountain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA84864-7FAC-46E8-89A5-458A647F3A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154CB5DC-CB34-4CFA-8365-F6793B04AFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21690" windowHeight="12525" xr2:uid="{E968E56F-0CC0-4AFA-9179-F215C97FD34D}"/>
+    <workbookView xWindow="16680" yWindow="120" windowWidth="11985" windowHeight="13425" xr2:uid="{E968E56F-0CC0-4AFA-9179-F215C97FD34D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -126,6 +126,133 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きな丘・固定・ベース</t>
+    <rPh sb="5" eb="7">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小さな山・固定・上層</t>
+    <rPh sb="5" eb="7">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小さな山・固定・中層</t>
+    <rPh sb="5" eb="7">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小さな山・固定・下層</t>
+    <rPh sb="5" eb="7">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【崖】</t>
+    <rPh sb="1" eb="2">
+      <t>ガケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【崖】大きい山山頂</t>
+    <rPh sb="1" eb="2">
+      <t>ガケ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【崖】小さい山山頂</t>
+    <rPh sb="1" eb="2">
+      <t>ガケ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小さな丘・ランダム・ベース無</t>
+    <rPh sb="0" eb="1">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小さな丘・ランダム・ベース有</t>
+    <rPh sb="0" eb="1">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小さな山・ランダム・ベース有</t>
+    <rPh sb="13" eb="14">
+      <t>アリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きな山・固定・ベース有</t>
+    <rPh sb="5" eb="7">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小さな山・ランダム・ベース無</t>
+    <rPh sb="13" eb="14">
+      <t>ナシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -268,15 +395,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B522898-06F1-4748-AC27-AE72D193764A}" name="テーブル1" displayName="テーブル1" ref="A1:F9" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:F9" xr:uid="{0A2CB856-9B44-4213-A4F2-04B15359D0B7}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B522898-06F1-4748-AC27-AE72D193764A}" name="テーブル1" displayName="テーブル1" ref="A1:G32" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G32" xr:uid="{0A2CB856-9B44-4213-A4F2-04B15359D0B7}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{66C173E4-0B23-4B66-80E3-5E11635161ED}" name="ID"/>
     <tableColumn id="2" xr3:uid="{EE71A190-6CAD-40A4-9C7C-F5B145035370}" name="StartPosX"/>
     <tableColumn id="3" xr3:uid="{2A3A6A69-B765-4ADA-AA70-67C62D4BAABE}" name="StartPosY"/>
     <tableColumn id="4" xr3:uid="{16D321E8-9677-401B-8CC2-8E1820E18B6D}" name="StartPosZ"/>
     <tableColumn id="5" xr3:uid="{019FB92B-A3C1-44A5-9EA0-932F0E7EAC68}" name="Height"/>
     <tableColumn id="6" xr3:uid="{211BF312-A4B1-44D0-BF8A-40A2A1559F90}" name="Wide"/>
+    <tableColumn id="7" xr3:uid="{4D4C9988-6E3C-4333-95A1-E9D78BFEFC08}" name="memo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -579,10 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAE46C9-DA47-4AAE-A1CB-DF3EA16384E4}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -590,7 +721,7 @@
     <col min="2" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,8 +740,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -630,7 +764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -650,7 +784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -670,7 +804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -684,7 +818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -698,7 +832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -712,7 +846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>2003</v>
       </c>
@@ -726,7 +860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>3001</v>
       </c>
@@ -738,6 +872,499 @@
       </c>
       <c r="F9">
         <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>4001</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>4002</v>
+      </c>
+      <c r="C11">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>4003</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>4004</v>
+      </c>
+      <c r="C13">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>4005</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>4006</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>4007</v>
+      </c>
+      <c r="B16">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>4008</v>
+      </c>
+      <c r="B17">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>4009</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>5001</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <f>C21+テーブル1[[#This Row],[Height]]-1</f>
+        <v>78</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>5002</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>48</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>5003</v>
+      </c>
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <f>C22+テーブル1[[#This Row],[Height]]-1</f>
+        <v>73</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>5004</v>
+      </c>
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <f>C23+テーブル1[[#This Row],[Height]]-1</f>
+        <v>68</v>
+      </c>
+      <c r="D22">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>5005</v>
+      </c>
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <f>C24+テーブル1[[#This Row],[Height]]-1</f>
+        <v>63</v>
+      </c>
+      <c r="D23">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>5006</v>
+      </c>
+      <c r="B24">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <f>C25+テーブル1[[#This Row],[Height]]-1</f>
+        <v>58</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>5007</v>
+      </c>
+      <c r="B25">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <f>C26+テーブル1[[#This Row],[Height]]-1</f>
+        <v>53</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>5008</v>
+      </c>
+      <c r="B26">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <f>C27+テーブル1[[#This Row],[Height]]-1</f>
+        <v>48</v>
+      </c>
+      <c r="D26">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>5009</v>
+      </c>
+      <c r="B27">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <f>C28+テーブル1[[#This Row],[Height]]-1</f>
+        <v>43</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>5010</v>
+      </c>
+      <c r="B28">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <f>C29+テーブル1[[#This Row],[Height]]-1</f>
+        <v>38</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>5011</v>
+      </c>
+      <c r="B29">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <f>C30+テーブル1[[#This Row],[Height]]-1</f>
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>5012</v>
+      </c>
+      <c r="B30">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <f>C31+テーブル1[[#This Row],[Height]]-1</f>
+        <v>28</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>5013</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <f>C32+テーブル1[[#This Row],[Height]]-1</f>
+        <v>23</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>5014</v>
+      </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>15</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/MapMountain.xlsx
+++ b/Config/Excel/MapMountain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154CB5DC-CB34-4CFA-8365-F6793B04AFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39DF8BF-1EC7-4676-947B-2957579D9D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="120" windowWidth="11985" windowHeight="13425" xr2:uid="{E968E56F-0CC0-4AFA-9179-F215C97FD34D}"/>
+    <workbookView xWindow="405" yWindow="375" windowWidth="24180" windowHeight="15075" xr2:uid="{E968E56F-0CC0-4AFA-9179-F215C97FD34D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -253,6 +253,25 @@
     <t>小さな山・ランダム・ベース無</t>
     <rPh sb="13" eb="14">
       <t>ナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小さな山・白砂用</t>
+    <rPh sb="0" eb="1">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スナ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -395,8 +414,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B522898-06F1-4748-AC27-AE72D193764A}" name="テーブル1" displayName="テーブル1" ref="A1:G32" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G32" xr:uid="{0A2CB856-9B44-4213-A4F2-04B15359D0B7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B522898-06F1-4748-AC27-AE72D193764A}" name="テーブル1" displayName="テーブル1" ref="A1:G33" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G33" xr:uid="{0A2CB856-9B44-4213-A4F2-04B15359D0B7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{66C173E4-0B23-4B66-80E3-5E11635161ED}" name="ID"/>
     <tableColumn id="2" xr3:uid="{EE71A190-6CAD-40A4-9C7C-F5B145035370}" name="StartPosX"/>
@@ -707,13 +726,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAE46C9-DA47-4AAE-A1CB-DF3EA16384E4}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14:H15"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -891,7 +910,7 @@
         <v>5</v>
       </c>
       <c r="F10">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -1007,7 +1026,7 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>18</v>
@@ -1365,6 +1384,20 @@
       </c>
       <c r="G32" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>5015</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
